--- a/BackTest/2019-10-28 BackTest ETH.xlsx
+++ b/BackTest/2019-10-28 BackTest ETH.xlsx
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3426,14 +3426,20 @@
         <v>209000</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>209100</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3467,20 @@
         <v>208866.6666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>209000</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3496,14 +3508,20 @@
         <v>208766.6666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>208500</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +3549,20 @@
         <v>208733.3333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>208800</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3566,14 +3590,20 @@
         <v>208866.6666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>208900</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3601,14 +3631,20 @@
         <v>209166.6666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>208900</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3636,14 +3672,20 @@
         <v>209266.6666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>209700</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3713,20 @@
         <v>209233.3333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>209200</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3754,20 @@
         <v>208800</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>208800</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3802,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3841,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +3880,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +3919,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +3958,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +3997,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4036,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4075,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4114,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4153,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4192,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4231,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,18 +4263,16 @@
         <v>209200</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>209100</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -4202,14 +4302,12 @@
         <v>209300</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>209300</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4243,14 +4341,12 @@
         <v>209500</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>209500</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4284,14 +4380,12 @@
         <v>209633.3333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>209800</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4520,14 +4614,12 @@
         <v>209466.6666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>209500</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4561,14 +4653,12 @@
         <v>209400</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>209300</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4602,14 +4692,12 @@
         <v>209566.6666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>209300</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4643,14 +4731,12 @@
         <v>209533.3333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4684,14 +4770,12 @@
         <v>209666.6666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4725,14 +4809,12 @@
         <v>209633.3333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>209600</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -4766,14 +4848,12 @@
         <v>209633.3333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -4807,14 +4887,12 @@
         <v>209500</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>209600</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -4848,14 +4926,12 @@
         <v>209333.3333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>209200</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -4889,14 +4965,12 @@
         <v>209266.6666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>209100</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -4930,14 +5004,12 @@
         <v>209266.6666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>209200</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -4971,14 +5043,12 @@
         <v>209333.3333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>209300</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5012,14 +5082,12 @@
         <v>209400</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>209500</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5053,14 +5121,12 @@
         <v>209433.3333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>209600</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5094,14 +5160,12 @@
         <v>209400</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>209300</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5135,14 +5199,12 @@
         <v>209300</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>209200</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5176,14 +5238,12 @@
         <v>209000</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>209200</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5217,14 +5277,12 @@
         <v>208900</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>208600</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5258,14 +5316,12 @@
         <v>208700</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>208500</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5299,14 +5355,12 @@
         <v>208866.6666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>208700</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5340,14 +5394,12 @@
         <v>208866.6666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>209100</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5381,14 +5433,12 @@
         <v>208933.3333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>208900</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5422,14 +5472,12 @@
         <v>209100</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>209300</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5463,14 +5511,12 @@
         <v>209333.3333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>209400</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5504,14 +5550,12 @@
         <v>209566.6666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>209400</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5545,14 +5589,12 @@
         <v>209633.3333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>209600</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5586,14 +5628,12 @@
         <v>209600</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5627,14 +5667,12 @@
         <v>209666.6666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>209600</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5668,14 +5706,12 @@
         <v>209566.6666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>209800</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5709,14 +5745,12 @@
         <v>209733.3333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>210000</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5750,14 +5784,12 @@
         <v>209766.6666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>210000</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5791,14 +5823,12 @@
         <v>209933.3333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>209900</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5832,14 +5862,12 @@
         <v>209833.3333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5873,14 +5901,12 @@
         <v>209800</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5914,14 +5940,12 @@
         <v>209733.3333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>209800</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5955,14 +5979,12 @@
         <v>209833.3333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5996,14 +6018,12 @@
         <v>209833.3333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6037,14 +6057,12 @@
         <v>209900</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>209900</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6078,14 +6096,12 @@
         <v>209833.3333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>209900</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6119,14 +6135,12 @@
         <v>209900</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>209800</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6160,14 +6174,12 @@
         <v>209800</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>209700</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6201,14 +6213,12 @@
         <v>209766.6666666667</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>209600</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6242,14 +6252,12 @@
         <v>209766.6666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>210000</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6283,14 +6291,12 @@
         <v>210066.6666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>210000</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6324,14 +6330,12 @@
         <v>210333.3333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>210300</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -33746,18 +33750,16 @@
         <v>0</v>
       </c>
       <c r="I864" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
       <c r="L864" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M864" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
@@ -33785,15 +33787,11 @@
         <v>0</v>
       </c>
       <c r="I865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L865" t="inlineStr"/>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -33828,11 +33826,7 @@
       </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L866" t="inlineStr"/>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -33867,11 +33861,7 @@
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L867" t="inlineStr"/>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -33906,11 +33896,7 @@
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L868" t="inlineStr"/>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -33945,11 +33931,7 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L869" t="inlineStr"/>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -33984,11 +33966,7 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L870" t="inlineStr"/>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -34023,11 +34001,7 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L871" t="inlineStr"/>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -34062,11 +34036,7 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -34101,11 +34071,7 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L873" t="inlineStr"/>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -34140,11 +34106,7 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L874" t="inlineStr"/>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -34179,11 +34141,7 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L875" t="inlineStr"/>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -34218,11 +34176,7 @@
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L876" t="inlineStr"/>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -34257,11 +34211,7 @@
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L877" t="inlineStr"/>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -34296,11 +34246,7 @@
       </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L878" t="inlineStr"/>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -34335,11 +34281,7 @@
       </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -34374,11 +34316,7 @@
       </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L880" t="inlineStr"/>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -34413,11 +34351,7 @@
       </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L881" t="inlineStr"/>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -34452,11 +34386,7 @@
       </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -34491,11 +34421,7 @@
       </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L883" t="inlineStr"/>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -34530,11 +34456,7 @@
       </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L884" t="inlineStr"/>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -34569,11 +34491,7 @@
       </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L885" t="inlineStr"/>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -34608,11 +34526,7 @@
       </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L886" t="inlineStr"/>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -34647,11 +34561,7 @@
       </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L887" t="inlineStr"/>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -34686,11 +34596,7 @@
       </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L888" t="inlineStr"/>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -34725,11 +34631,7 @@
       </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L889" t="inlineStr"/>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -34764,11 +34666,7 @@
       </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L890" t="inlineStr"/>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -34803,11 +34701,7 @@
       </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L891" t="inlineStr"/>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -34842,11 +34736,7 @@
       </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L892" t="inlineStr"/>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -34881,11 +34771,7 @@
       </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L893" t="inlineStr"/>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -34920,11 +34806,7 @@
       </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L894" t="inlineStr"/>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -34959,11 +34841,7 @@
       </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L895" t="inlineStr"/>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -34998,11 +34876,7 @@
       </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L896" t="inlineStr"/>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -35037,11 +34911,7 @@
       </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L897" t="inlineStr"/>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -35076,11 +34946,7 @@
       </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L898" t="inlineStr"/>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -35115,11 +34981,7 @@
       </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L899" t="inlineStr"/>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -35154,11 +35016,7 @@
       </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L900" t="inlineStr"/>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -35193,11 +35051,7 @@
       </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L901" t="inlineStr"/>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -35232,11 +35086,7 @@
       </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L902" t="inlineStr"/>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -35271,11 +35121,7 @@
       </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L903" t="inlineStr"/>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -35310,11 +35156,7 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L904" t="inlineStr"/>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -35349,11 +35191,7 @@
       </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L905" t="inlineStr"/>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -35388,11 +35226,7 @@
       </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L906" t="inlineStr"/>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -35427,11 +35261,7 @@
       </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L907" t="inlineStr"/>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -35466,11 +35296,7 @@
       </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L908" t="inlineStr"/>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -35505,11 +35331,7 @@
       </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L909" t="inlineStr"/>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -35544,11 +35366,7 @@
       </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L910" t="inlineStr"/>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -35583,11 +35401,7 @@
       </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L911" t="inlineStr"/>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -35622,11 +35436,7 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L912" t="inlineStr"/>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -35661,11 +35471,7 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L913" t="inlineStr"/>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -35700,11 +35506,7 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L914" t="inlineStr"/>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -35739,11 +35541,7 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L915" t="inlineStr"/>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -35778,11 +35576,7 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L916" t="inlineStr"/>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -35817,11 +35611,7 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L917" t="inlineStr"/>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -35856,11 +35646,7 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L918" t="inlineStr"/>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -35895,11 +35681,7 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L919" t="inlineStr"/>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -35934,11 +35716,7 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L920" t="inlineStr"/>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -35973,11 +35751,7 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L921" t="inlineStr"/>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -36012,11 +35786,7 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L922" t="inlineStr"/>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -36051,11 +35821,7 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L923" t="inlineStr"/>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -36090,11 +35856,7 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L924" t="inlineStr"/>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -36129,11 +35891,7 @@
       </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L925" t="inlineStr"/>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -36168,11 +35926,7 @@
       </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L926" t="inlineStr"/>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -36207,11 +35961,7 @@
       </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L927" t="inlineStr"/>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -36246,11 +35996,7 @@
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L928" t="inlineStr"/>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -36285,11 +36031,7 @@
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L929" t="inlineStr"/>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -36324,11 +36066,7 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L930" t="inlineStr"/>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -36363,11 +36101,7 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L931" t="inlineStr"/>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -36402,11 +36136,7 @@
       </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
-      <c r="L932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L932" t="inlineStr"/>
       <c r="M932" t="n">
         <v>1</v>
       </c>
@@ -36441,11 +36171,7 @@
       </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
-      <c r="L933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L933" t="inlineStr"/>
       <c r="M933" t="n">
         <v>1</v>
       </c>
@@ -36480,11 +36206,7 @@
       </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
-      <c r="L934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L934" t="inlineStr"/>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -36519,11 +36241,7 @@
       </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
-      <c r="L935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L935" t="inlineStr"/>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -36558,11 +36276,7 @@
       </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
-      <c r="L936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L936" t="inlineStr"/>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -36597,11 +36311,7 @@
       </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
-      <c r="L937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L937" t="inlineStr"/>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -36636,11 +36346,7 @@
       </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
-      <c r="L938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L938" t="inlineStr"/>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -36675,11 +36381,7 @@
       </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
-      <c r="L939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L939" t="inlineStr"/>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -36714,11 +36416,7 @@
       </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L940" t="inlineStr"/>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -36753,11 +36451,7 @@
       </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
-      <c r="L941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L941" t="inlineStr"/>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -36792,11 +36486,7 @@
       </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L942" t="inlineStr"/>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -36831,11 +36521,7 @@
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L943" t="inlineStr"/>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -36870,11 +36556,7 @@
       </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L944" t="inlineStr"/>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -36909,11 +36591,7 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L945" t="inlineStr"/>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -36948,11 +36626,7 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L946" t="inlineStr"/>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -36987,11 +36661,7 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L947" t="inlineStr"/>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -37026,11 +36696,7 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L948" t="inlineStr"/>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -37065,11 +36731,7 @@
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L949" t="inlineStr"/>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -37104,11 +36766,7 @@
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L950" t="inlineStr"/>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -37143,11 +36801,7 @@
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L951" t="inlineStr"/>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -37182,11 +36836,7 @@
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L952" t="inlineStr"/>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -37221,11 +36871,7 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L953" t="inlineStr"/>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -37260,11 +36906,7 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L954" t="inlineStr"/>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -37299,11 +36941,7 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L955" t="inlineStr"/>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -37338,11 +36976,7 @@
       </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L956" t="inlineStr"/>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -37377,11 +37011,7 @@
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L957" t="inlineStr"/>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -37416,11 +37046,7 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L958" t="inlineStr"/>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -37455,11 +37081,7 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L959" t="inlineStr"/>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -37494,11 +37116,7 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L960" t="inlineStr"/>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -37533,11 +37151,7 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L961" t="inlineStr"/>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -37572,11 +37186,7 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L962" t="inlineStr"/>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -37611,11 +37221,7 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L963" t="inlineStr"/>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -37650,11 +37256,7 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L964" t="inlineStr"/>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -37689,11 +37291,7 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L965" t="inlineStr"/>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -37728,11 +37326,7 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L966" t="inlineStr"/>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -37767,11 +37361,7 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L967" t="inlineStr"/>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -37806,11 +37396,7 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L968" t="inlineStr"/>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -37845,11 +37431,7 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L969" t="inlineStr"/>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -37884,11 +37466,7 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L970" t="inlineStr"/>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -37923,11 +37501,7 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L971" t="inlineStr"/>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -37962,11 +37536,7 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L972" t="inlineStr"/>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -38001,11 +37571,7 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L973" t="inlineStr"/>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -38040,11 +37606,7 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L974" t="inlineStr"/>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -38079,11 +37641,7 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L975" t="inlineStr"/>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -38118,11 +37676,7 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L976" t="inlineStr"/>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -38157,11 +37711,7 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L977" t="inlineStr"/>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -38196,11 +37746,7 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L978" t="inlineStr"/>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -38235,11 +37781,7 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L979" t="inlineStr"/>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -38274,11 +37816,7 @@
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L980" t="inlineStr"/>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -38313,11 +37851,7 @@
       </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L981" t="inlineStr"/>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -38352,11 +37886,7 @@
       </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L982" t="inlineStr"/>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -38391,11 +37921,7 @@
       </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L983" t="inlineStr"/>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -38430,11 +37956,7 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L984" t="inlineStr"/>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -38469,11 +37991,7 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L985" t="inlineStr"/>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -38508,11 +38026,7 @@
       </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L986" t="inlineStr"/>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -38547,11 +38061,7 @@
       </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L987" t="inlineStr"/>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -38586,11 +38096,7 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L988" t="inlineStr"/>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -38625,11 +38131,7 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L989" t="inlineStr"/>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -38664,11 +38166,7 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L990" t="inlineStr"/>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -38703,11 +38201,7 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L991" t="inlineStr"/>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -38742,11 +38236,7 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L992" t="inlineStr"/>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -38781,11 +38271,7 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L993" t="inlineStr"/>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -38820,11 +38306,7 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L994" t="inlineStr"/>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -38859,11 +38341,7 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L995" t="inlineStr"/>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -38898,11 +38376,7 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L996" t="inlineStr"/>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -38937,11 +38411,7 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L997" t="inlineStr"/>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -38976,11 +38446,7 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L998" t="inlineStr"/>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -39015,11 +38481,7 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L999" t="inlineStr"/>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -39054,11 +38516,7 @@
       </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
-      <c r="L1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1000" t="inlineStr"/>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -39093,11 +38551,7 @@
       </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1001" t="inlineStr"/>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -39132,11 +38586,7 @@
       </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
-      <c r="L1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1002" t="inlineStr"/>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -39171,11 +38621,7 @@
       </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1003" t="inlineStr"/>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -39210,11 +38656,7 @@
       </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
-      <c r="L1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1004" t="inlineStr"/>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -39249,11 +38691,7 @@
       </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
-      <c r="L1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1005" t="inlineStr"/>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -39288,11 +38726,7 @@
       </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
-      <c r="L1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1006" t="inlineStr"/>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -39327,11 +38761,7 @@
       </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
-      <c r="L1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1007" t="inlineStr"/>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -39366,11 +38796,7 @@
       </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
-      <c r="L1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1008" t="inlineStr"/>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -39405,11 +38831,7 @@
       </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
-      <c r="L1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1009" t="inlineStr"/>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -39444,11 +38866,7 @@
       </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
-      <c r="L1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1010" t="inlineStr"/>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -39483,11 +38901,7 @@
       </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
-      <c r="L1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1011" t="inlineStr"/>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -39522,11 +38936,7 @@
       </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
-      <c r="L1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1012" t="inlineStr"/>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -39561,11 +38971,7 @@
       </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
-      <c r="L1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1013" t="inlineStr"/>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -39600,11 +39006,7 @@
       </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1014" t="inlineStr"/>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -39639,11 +39041,7 @@
       </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
-      <c r="L1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1015" t="inlineStr"/>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -39678,11 +39076,7 @@
       </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
-      <c r="L1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1016" t="inlineStr"/>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -39717,11 +39111,7 @@
       </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
-      <c r="L1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1017" t="inlineStr"/>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -39756,11 +39146,7 @@
       </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1018" t="inlineStr"/>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -39795,11 +39181,7 @@
       </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
-      <c r="L1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1019" t="inlineStr"/>
       <c r="M1019" t="n">
         <v>1</v>
       </c>
@@ -39834,11 +39216,7 @@
       </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
-      <c r="L1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1020" t="inlineStr"/>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -39873,11 +39251,7 @@
       </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
-      <c r="L1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1021" t="inlineStr"/>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -39912,11 +39286,7 @@
       </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
-      <c r="L1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1022" t="inlineStr"/>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -39951,11 +39321,7 @@
       </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
-      <c r="L1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1023" t="inlineStr"/>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -39990,11 +39356,7 @@
       </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
-      <c r="L1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1024" t="inlineStr"/>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -40029,11 +39391,7 @@
       </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
-      <c r="L1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1025" t="inlineStr"/>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -40068,11 +39426,7 @@
       </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1026" t="inlineStr"/>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -40107,11 +39461,7 @@
       </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
-      <c r="L1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1027" t="inlineStr"/>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -40146,11 +39496,7 @@
       </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
-      <c r="L1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1028" t="inlineStr"/>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -40185,11 +39531,7 @@
       </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1029" t="inlineStr"/>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -40224,11 +39566,7 @@
       </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1030" t="inlineStr"/>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -40263,11 +39601,7 @@
       </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1031" t="inlineStr"/>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -40302,11 +39636,7 @@
       </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1032" t="inlineStr"/>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -40341,11 +39671,7 @@
       </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1033" t="inlineStr"/>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -40380,11 +39706,7 @@
       </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1034" t="inlineStr"/>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -40419,11 +39741,7 @@
       </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1035" t="inlineStr"/>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -40458,11 +39776,7 @@
       </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1036" t="inlineStr"/>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -40497,11 +39811,7 @@
       </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1037" t="inlineStr"/>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -40536,11 +39846,7 @@
       </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1038" t="inlineStr"/>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -40575,11 +39881,7 @@
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1039" t="inlineStr"/>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -40614,11 +39916,7 @@
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1040" t="inlineStr"/>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -40653,11 +39951,7 @@
       </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1041" t="inlineStr"/>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -40692,11 +39986,7 @@
       </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1042" t="inlineStr"/>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -40731,11 +40021,7 @@
       </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1043" t="inlineStr"/>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -40770,11 +40056,7 @@
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1044" t="inlineStr"/>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -40809,11 +40091,7 @@
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1045" t="inlineStr"/>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -40848,11 +40126,7 @@
       </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1046" t="inlineStr"/>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -40887,11 +40161,7 @@
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1047" t="inlineStr"/>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -40926,11 +40196,7 @@
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1048" t="inlineStr"/>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -40965,11 +40231,7 @@
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1049" t="inlineStr"/>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -41004,11 +40266,7 @@
       </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1050" t="inlineStr"/>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -41043,11 +40301,7 @@
       </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1051" t="inlineStr"/>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -41082,11 +40336,7 @@
       </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1052" t="inlineStr"/>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -41121,11 +40371,7 @@
       </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1053" t="inlineStr"/>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -41160,11 +40406,7 @@
       </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1054" t="inlineStr"/>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -41199,11 +40441,7 @@
       </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1055" t="inlineStr"/>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -41238,11 +40476,7 @@
       </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1056" t="inlineStr"/>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -41277,11 +40511,7 @@
       </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1057" t="inlineStr"/>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -41316,11 +40546,7 @@
       </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1058" t="inlineStr"/>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -41355,11 +40581,7 @@
       </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1059" t="inlineStr"/>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -41394,11 +40616,7 @@
       </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1060" t="inlineStr"/>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -41433,11 +40651,7 @@
       </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1061" t="inlineStr"/>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -41472,11 +40686,7 @@
       </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1062" t="inlineStr"/>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -41511,11 +40721,7 @@
       </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1063" t="inlineStr"/>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -41550,11 +40756,7 @@
       </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1064" t="inlineStr"/>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -41589,11 +40791,7 @@
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1065" t="inlineStr"/>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -41628,11 +40826,7 @@
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1066" t="inlineStr"/>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -41667,11 +40861,7 @@
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1067" t="inlineStr"/>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -41706,11 +40896,7 @@
       </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1068" t="inlineStr"/>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -41745,11 +40931,7 @@
       </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1069" t="inlineStr"/>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -41784,11 +40966,7 @@
       </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1070" t="inlineStr"/>
       <c r="M1070" t="n">
         <v>1</v>
       </c>
@@ -41823,11 +41001,7 @@
       </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1071" t="inlineStr"/>
       <c r="M1071" t="n">
         <v>1</v>
       </c>
@@ -41862,11 +41036,7 @@
       </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr"/>
-      <c r="L1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1072" t="inlineStr"/>
       <c r="M1072" t="n">
         <v>1</v>
       </c>
@@ -41901,11 +41071,7 @@
       </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1073" t="inlineStr"/>
       <c r="M1073" t="n">
         <v>1</v>
       </c>
@@ -41940,11 +41106,7 @@
       </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr"/>
-      <c r="L1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1074" t="inlineStr"/>
       <c r="M1074" t="n">
         <v>1</v>
       </c>
@@ -41979,11 +41141,7 @@
       </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr"/>
-      <c r="L1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1075" t="inlineStr"/>
       <c r="M1075" t="n">
         <v>1</v>
       </c>
@@ -42018,11 +41176,7 @@
       </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr"/>
-      <c r="L1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1076" t="inlineStr"/>
       <c r="M1076" t="n">
         <v>1</v>
       </c>
@@ -42057,11 +41211,7 @@
       </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr"/>
-      <c r="L1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1077" t="inlineStr"/>
       <c r="M1077" t="n">
         <v>1</v>
       </c>
@@ -42096,11 +41246,7 @@
       </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr"/>
-      <c r="L1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1078" t="inlineStr"/>
       <c r="M1078" t="n">
         <v>1</v>
       </c>
@@ -42135,11 +41281,7 @@
       </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr"/>
-      <c r="L1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1079" t="inlineStr"/>
       <c r="M1079" t="n">
         <v>1</v>
       </c>
@@ -42174,11 +41316,7 @@
       </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr"/>
-      <c r="L1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1080" t="inlineStr"/>
       <c r="M1080" t="n">
         <v>1</v>
       </c>
@@ -42213,11 +41351,7 @@
       </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr"/>
-      <c r="L1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1081" t="inlineStr"/>
       <c r="M1081" t="n">
         <v>1</v>
       </c>
@@ -42252,11 +41386,7 @@
       </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr"/>
-      <c r="L1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1082" t="inlineStr"/>
       <c r="M1082" t="n">
         <v>1</v>
       </c>
@@ -42291,11 +41421,7 @@
       </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr"/>
-      <c r="L1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1083" t="inlineStr"/>
       <c r="M1083" t="n">
         <v>1</v>
       </c>
@@ -42330,11 +41456,7 @@
       </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr"/>
-      <c r="L1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1084" t="inlineStr"/>
       <c r="M1084" t="n">
         <v>1</v>
       </c>
@@ -42369,11 +41491,7 @@
       </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1085" t="inlineStr"/>
       <c r="M1085" t="n">
         <v>1</v>
       </c>
@@ -42408,11 +41526,7 @@
       </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1086" t="inlineStr"/>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -42447,11 +41561,7 @@
       </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1087" t="inlineStr"/>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -42486,11 +41596,7 @@
       </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1088" t="inlineStr"/>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -42525,11 +41631,7 @@
       </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1089" t="inlineStr"/>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -42564,11 +41666,7 @@
       </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1090" t="inlineStr"/>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -42603,11 +41701,7 @@
       </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1091" t="inlineStr"/>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -42642,11 +41736,7 @@
       </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1092" t="inlineStr"/>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -42681,11 +41771,7 @@
       </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1093" t="inlineStr"/>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -42720,11 +41806,7 @@
       </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1094" t="inlineStr"/>
       <c r="M1094" t="n">
         <v>1</v>
       </c>
@@ -42759,11 +41841,7 @@
       </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
-      <c r="L1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1095" t="inlineStr"/>
       <c r="M1095" t="n">
         <v>1</v>
       </c>
@@ -42798,11 +41876,7 @@
       </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr"/>
-      <c r="L1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1096" t="inlineStr"/>
       <c r="M1096" t="n">
         <v>1</v>
       </c>
@@ -42837,11 +41911,7 @@
       </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr"/>
-      <c r="L1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1097" t="inlineStr"/>
       <c r="M1097" t="n">
         <v>1</v>
       </c>
@@ -42876,11 +41946,7 @@
       </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr"/>
-      <c r="L1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1098" t="inlineStr"/>
       <c r="M1098" t="n">
         <v>1</v>
       </c>
@@ -42915,11 +41981,7 @@
       </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr"/>
-      <c r="L1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1099" t="inlineStr"/>
       <c r="M1099" t="n">
         <v>1</v>
       </c>
@@ -42954,11 +42016,7 @@
       </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr"/>
-      <c r="L1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1100" t="inlineStr"/>
       <c r="M1100" t="n">
         <v>1</v>
       </c>
@@ -42993,11 +42051,7 @@
       </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1101" t="inlineStr"/>
       <c r="M1101" t="n">
         <v>1</v>
       </c>
@@ -43032,11 +42086,7 @@
       </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr"/>
-      <c r="L1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1102" t="inlineStr"/>
       <c r="M1102" t="n">
         <v>1</v>
       </c>
@@ -43071,11 +42121,7 @@
       </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr"/>
-      <c r="L1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1103" t="inlineStr"/>
       <c r="M1103" t="n">
         <v>1</v>
       </c>
@@ -43110,11 +42156,7 @@
       </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr"/>
-      <c r="L1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1104" t="inlineStr"/>
       <c r="M1104" t="n">
         <v>1</v>
       </c>
@@ -43149,11 +42191,7 @@
       </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr"/>
-      <c r="L1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1105" t="inlineStr"/>
       <c r="M1105" t="n">
         <v>1</v>
       </c>
@@ -43188,11 +42226,7 @@
       </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1106" t="inlineStr"/>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -43227,11 +42261,7 @@
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1107" t="inlineStr"/>
       <c r="M1107" t="n">
         <v>1</v>
       </c>
@@ -43266,11 +42296,7 @@
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
-      <c r="L1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1108" t="inlineStr"/>
       <c r="M1108" t="n">
         <v>1</v>
       </c>
@@ -43305,11 +42331,7 @@
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
-      <c r="L1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1109" t="inlineStr"/>
       <c r="M1109" t="n">
         <v>1</v>
       </c>
@@ -43344,11 +42366,7 @@
       </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1110" t="inlineStr"/>
       <c r="M1110" t="n">
         <v>1</v>
       </c>
@@ -43383,11 +42401,7 @@
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
-      <c r="L1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1111" t="inlineStr"/>
       <c r="M1111" t="n">
         <v>1</v>
       </c>
@@ -43422,11 +42436,7 @@
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
-      <c r="L1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1112" t="inlineStr"/>
       <c r="M1112" t="n">
         <v>1</v>
       </c>
@@ -43461,11 +42471,7 @@
       </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr"/>
-      <c r="L1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1113" t="inlineStr"/>
       <c r="M1113" t="n">
         <v>1</v>
       </c>
@@ -43500,11 +42506,7 @@
       </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr"/>
-      <c r="L1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1114" t="inlineStr"/>
       <c r="M1114" t="n">
         <v>1</v>
       </c>
@@ -43539,11 +42541,7 @@
       </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr"/>
-      <c r="L1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1115" t="inlineStr"/>
       <c r="M1115" t="n">
         <v>1</v>
       </c>
@@ -43578,11 +42576,7 @@
       </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1116" t="inlineStr"/>
       <c r="M1116" t="n">
         <v>1</v>
       </c>
@@ -43617,11 +42611,7 @@
       </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr"/>
-      <c r="L1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1117" t="inlineStr"/>
       <c r="M1117" t="n">
         <v>1</v>
       </c>
@@ -43656,11 +42646,7 @@
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
-      <c r="L1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1118" t="inlineStr"/>
       <c r="M1118" t="n">
         <v>1</v>
       </c>
@@ -43695,11 +42681,7 @@
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
-      <c r="L1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1119" t="inlineStr"/>
       <c r="M1119" t="n">
         <v>1</v>
       </c>
@@ -43734,11 +42716,7 @@
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
-      <c r="L1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1120" t="inlineStr"/>
       <c r="M1120" t="n">
         <v>1</v>
       </c>
@@ -43773,11 +42751,7 @@
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
-      <c r="L1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1121" t="inlineStr"/>
       <c r="M1121" t="n">
         <v>1</v>
       </c>
@@ -43812,11 +42786,7 @@
       </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr"/>
-      <c r="L1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1122" t="inlineStr"/>
       <c r="M1122" t="n">
         <v>1</v>
       </c>
@@ -43851,11 +42821,7 @@
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
-      <c r="L1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1123" t="inlineStr"/>
       <c r="M1123" t="n">
         <v>1</v>
       </c>
@@ -43890,11 +42856,7 @@
       </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr"/>
-      <c r="L1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1124" t="inlineStr"/>
       <c r="M1124" t="n">
         <v>1</v>
       </c>
@@ -43929,11 +42891,7 @@
       </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr"/>
-      <c r="L1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1125" t="inlineStr"/>
       <c r="M1125" t="n">
         <v>1</v>
       </c>
@@ -43968,11 +42926,7 @@
       </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr"/>
-      <c r="L1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1126" t="inlineStr"/>
       <c r="M1126" t="n">
         <v>1</v>
       </c>
@@ -44007,11 +42961,7 @@
       </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr"/>
-      <c r="L1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1127" t="inlineStr"/>
       <c r="M1127" t="n">
         <v>1</v>
       </c>
@@ -44046,11 +42996,7 @@
       </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr"/>
-      <c r="L1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1128" t="inlineStr"/>
       <c r="M1128" t="n">
         <v>1</v>
       </c>
@@ -44085,11 +43031,7 @@
       </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr"/>
-      <c r="L1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1129" t="inlineStr"/>
       <c r="M1129" t="n">
         <v>1</v>
       </c>
@@ -44124,11 +43066,7 @@
       </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr"/>
-      <c r="L1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1130" t="inlineStr"/>
       <c r="M1130" t="n">
         <v>1</v>
       </c>
@@ -44163,11 +43101,7 @@
       </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr"/>
-      <c r="L1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1131" t="inlineStr"/>
       <c r="M1131" t="n">
         <v>1</v>
       </c>
@@ -44202,11 +43136,7 @@
       </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr"/>
-      <c r="L1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1132" t="inlineStr"/>
       <c r="M1132" t="n">
         <v>1</v>
       </c>
@@ -44241,11 +43171,7 @@
       </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr"/>
-      <c r="L1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1133" t="inlineStr"/>
       <c r="M1133" t="n">
         <v>1</v>
       </c>
@@ -44280,11 +43206,7 @@
       </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr"/>
-      <c r="L1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1134" t="inlineStr"/>
       <c r="M1134" t="n">
         <v>1</v>
       </c>
@@ -44319,11 +43241,7 @@
       </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr"/>
-      <c r="L1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1135" t="inlineStr"/>
       <c r="M1135" t="n">
         <v>1</v>
       </c>
@@ -44358,11 +43276,7 @@
       </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr"/>
-      <c r="L1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1136" t="inlineStr"/>
       <c r="M1136" t="n">
         <v>1</v>
       </c>
@@ -44397,11 +43311,7 @@
       </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr"/>
-      <c r="L1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1137" t="inlineStr"/>
       <c r="M1137" t="n">
         <v>1</v>
       </c>
@@ -44436,11 +43346,7 @@
       </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr"/>
-      <c r="L1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1138" t="inlineStr"/>
       <c r="M1138" t="n">
         <v>1</v>
       </c>
@@ -44475,11 +43381,7 @@
       </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr"/>
-      <c r="L1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1139" t="inlineStr"/>
       <c r="M1139" t="n">
         <v>1</v>
       </c>
@@ -44514,11 +43416,7 @@
       </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr"/>
-      <c r="L1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1140" t="inlineStr"/>
       <c r="M1140" t="n">
         <v>1</v>
       </c>
@@ -44553,11 +43451,7 @@
       </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr"/>
-      <c r="L1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1141" t="inlineStr"/>
       <c r="M1141" t="n">
         <v>1</v>
       </c>
@@ -44592,11 +43486,7 @@
       </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr"/>
-      <c r="L1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1142" t="inlineStr"/>
       <c r="M1142" t="n">
         <v>1</v>
       </c>
@@ -44631,11 +43521,7 @@
       </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr"/>
-      <c r="L1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1143" t="inlineStr"/>
       <c r="M1143" t="n">
         <v>1</v>
       </c>
@@ -44670,11 +43556,7 @@
       </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr"/>
-      <c r="L1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1144" t="inlineStr"/>
       <c r="M1144" t="n">
         <v>1</v>
       </c>
@@ -44709,11 +43591,7 @@
       </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr"/>
-      <c r="L1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1145" t="inlineStr"/>
       <c r="M1145" t="n">
         <v>1</v>
       </c>
@@ -44748,11 +43626,7 @@
       </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr"/>
-      <c r="L1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1146" t="inlineStr"/>
       <c r="M1146" t="n">
         <v>1</v>
       </c>
@@ -44787,11 +43661,7 @@
       </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr"/>
-      <c r="L1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1147" t="inlineStr"/>
       <c r="M1147" t="n">
         <v>1</v>
       </c>
@@ -44826,11 +43696,7 @@
       </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr"/>
-      <c r="L1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1148" t="inlineStr"/>
       <c r="M1148" t="n">
         <v>1</v>
       </c>
@@ -44865,11 +43731,7 @@
       </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr"/>
-      <c r="L1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1149" t="inlineStr"/>
       <c r="M1149" t="n">
         <v>1</v>
       </c>
@@ -44904,11 +43766,7 @@
       </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr"/>
-      <c r="L1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1150" t="inlineStr"/>
       <c r="M1150" t="n">
         <v>1</v>
       </c>
@@ -44943,11 +43801,7 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1151" t="inlineStr"/>
       <c r="M1151" t="n">
         <v>1</v>
       </c>
@@ -44982,11 +43836,7 @@
       </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr"/>
-      <c r="L1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1152" t="inlineStr"/>
       <c r="M1152" t="n">
         <v>1</v>
       </c>
@@ -45021,11 +43871,7 @@
       </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr"/>
-      <c r="L1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1153" t="inlineStr"/>
       <c r="M1153" t="n">
         <v>1</v>
       </c>
@@ -45060,11 +43906,7 @@
       </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr"/>
-      <c r="L1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1154" t="inlineStr"/>
       <c r="M1154" t="n">
         <v>1</v>
       </c>
@@ -45099,11 +43941,7 @@
       </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr"/>
-      <c r="L1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1155" t="inlineStr"/>
       <c r="M1155" t="n">
         <v>1</v>
       </c>
@@ -45138,11 +43976,7 @@
       </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr"/>
-      <c r="L1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1156" t="inlineStr"/>
       <c r="M1156" t="n">
         <v>1</v>
       </c>
@@ -45177,11 +44011,7 @@
       </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr"/>
-      <c r="L1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1157" t="inlineStr"/>
       <c r="M1157" t="n">
         <v>1</v>
       </c>
@@ -45216,11 +44046,7 @@
       </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr"/>
-      <c r="L1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1158" t="inlineStr"/>
       <c r="M1158" t="n">
         <v>1</v>
       </c>
@@ -45255,11 +44081,7 @@
       </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
-      <c r="L1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1159" t="inlineStr"/>
       <c r="M1159" t="n">
         <v>1</v>
       </c>
@@ -45294,11 +44116,7 @@
       </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr"/>
-      <c r="L1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1160" t="inlineStr"/>
       <c r="M1160" t="n">
         <v>1</v>
       </c>
@@ -45333,11 +44151,7 @@
       </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr"/>
-      <c r="L1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1161" t="inlineStr"/>
       <c r="M1161" t="n">
         <v>1</v>
       </c>
@@ -45372,11 +44186,7 @@
       </c>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr"/>
-      <c r="L1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1162" t="inlineStr"/>
       <c r="M1162" t="n">
         <v>1</v>
       </c>
@@ -45411,11 +44221,7 @@
       </c>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr"/>
-      <c r="L1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1163" t="inlineStr"/>
       <c r="M1163" t="n">
         <v>1</v>
       </c>
@@ -45450,11 +44256,7 @@
       </c>
       <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr"/>
-      <c r="L1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1164" t="inlineStr"/>
       <c r="M1164" t="n">
         <v>1</v>
       </c>
@@ -45489,11 +44291,7 @@
       </c>
       <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr"/>
-      <c r="L1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1165" t="inlineStr"/>
       <c r="M1165" t="n">
         <v>1</v>
       </c>
@@ -45528,11 +44326,7 @@
       </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
-      <c r="L1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1166" t="inlineStr"/>
       <c r="M1166" t="n">
         <v>1</v>
       </c>
@@ -45567,11 +44361,7 @@
       </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr"/>
-      <c r="L1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1167" t="inlineStr"/>
       <c r="M1167" t="n">
         <v>1</v>
       </c>
@@ -45606,11 +44396,7 @@
       </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr"/>
-      <c r="L1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1168" t="inlineStr"/>
       <c r="M1168" t="n">
         <v>1</v>
       </c>
@@ -45645,11 +44431,7 @@
       </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr"/>
-      <c r="L1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1169" t="inlineStr"/>
       <c r="M1169" t="n">
         <v>1</v>
       </c>
@@ -45684,11 +44466,7 @@
       </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr"/>
-      <c r="L1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1170" t="inlineStr"/>
       <c r="M1170" t="n">
         <v>1</v>
       </c>
@@ -45723,11 +44501,7 @@
       </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr"/>
-      <c r="L1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1171" t="inlineStr"/>
       <c r="M1171" t="n">
         <v>1</v>
       </c>
@@ -45762,11 +44536,7 @@
       </c>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr"/>
-      <c r="L1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1172" t="inlineStr"/>
       <c r="M1172" t="n">
         <v>1</v>
       </c>
@@ -45801,11 +44571,7 @@
       </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr"/>
-      <c r="L1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1173" t="inlineStr"/>
       <c r="M1173" t="n">
         <v>1</v>
       </c>
@@ -45840,11 +44606,7 @@
       </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr"/>
-      <c r="L1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1174" t="inlineStr"/>
       <c r="M1174" t="n">
         <v>1</v>
       </c>
@@ -45879,11 +44641,7 @@
       </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr"/>
-      <c r="L1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1175" t="inlineStr"/>
       <c r="M1175" t="n">
         <v>1</v>
       </c>
@@ -45918,11 +44676,7 @@
       </c>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr"/>
-      <c r="L1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1176" t="inlineStr"/>
       <c r="M1176" t="n">
         <v>1</v>
       </c>
@@ -45957,11 +44711,7 @@
       </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr"/>
-      <c r="L1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1177" t="inlineStr"/>
       <c r="M1177" t="n">
         <v>1</v>
       </c>
@@ -45996,11 +44746,7 @@
       </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr"/>
-      <c r="L1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1178" t="inlineStr"/>
       <c r="M1178" t="n">
         <v>1</v>
       </c>
@@ -46035,11 +44781,7 @@
       </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr"/>
-      <c r="L1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1179" t="inlineStr"/>
       <c r="M1179" t="n">
         <v>1</v>
       </c>
@@ -46074,11 +44816,7 @@
       </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr"/>
-      <c r="L1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1180" t="inlineStr"/>
       <c r="M1180" t="n">
         <v>1</v>
       </c>
@@ -46113,11 +44851,7 @@
       </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr"/>
-      <c r="L1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1181" t="inlineStr"/>
       <c r="M1181" t="n">
         <v>1</v>
       </c>
@@ -46152,11 +44886,7 @@
       </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr"/>
-      <c r="L1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1182" t="inlineStr"/>
       <c r="M1182" t="n">
         <v>1</v>
       </c>
@@ -46191,11 +44921,7 @@
       </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr"/>
-      <c r="L1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1183" t="inlineStr"/>
       <c r="M1183" t="n">
         <v>1</v>
       </c>
@@ -46230,11 +44956,7 @@
       </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr"/>
-      <c r="L1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1184" t="inlineStr"/>
       <c r="M1184" t="n">
         <v>1</v>
       </c>
@@ -46269,11 +44991,7 @@
       </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr"/>
-      <c r="L1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1185" t="inlineStr"/>
       <c r="M1185" t="n">
         <v>1</v>
       </c>
@@ -46308,11 +45026,7 @@
       </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1186" t="inlineStr"/>
       <c r="M1186" t="n">
         <v>1</v>
       </c>
@@ -46347,11 +45061,7 @@
       </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr"/>
-      <c r="L1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1187" t="inlineStr"/>
       <c r="M1187" t="n">
         <v>1</v>
       </c>
@@ -46386,11 +45096,7 @@
       </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr"/>
-      <c r="L1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1188" t="inlineStr"/>
       <c r="M1188" t="n">
         <v>1</v>
       </c>
@@ -46425,11 +45131,7 @@
       </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr"/>
-      <c r="L1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1189" t="inlineStr"/>
       <c r="M1189" t="n">
         <v>1</v>
       </c>
@@ -46464,11 +45166,7 @@
       </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr"/>
-      <c r="L1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1190" t="inlineStr"/>
       <c r="M1190" t="n">
         <v>1</v>
       </c>
@@ -46503,11 +45201,7 @@
       </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr"/>
-      <c r="L1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1191" t="inlineStr"/>
       <c r="M1191" t="n">
         <v>1</v>
       </c>
@@ -46542,11 +45236,7 @@
       </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr"/>
-      <c r="L1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1192" t="inlineStr"/>
       <c r="M1192" t="n">
         <v>1</v>
       </c>
@@ -46581,11 +45271,7 @@
       </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr"/>
-      <c r="L1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1193" t="inlineStr"/>
       <c r="M1193" t="n">
         <v>1</v>
       </c>
@@ -46620,11 +45306,7 @@
       </c>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr"/>
-      <c r="L1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1194" t="inlineStr"/>
       <c r="M1194" t="n">
         <v>1</v>
       </c>
@@ -46659,11 +45341,7 @@
       </c>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr"/>
-      <c r="L1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1195" t="inlineStr"/>
       <c r="M1195" t="n">
         <v>1</v>
       </c>
@@ -46698,11 +45376,7 @@
       </c>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr"/>
-      <c r="L1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1196" t="inlineStr"/>
       <c r="M1196" t="n">
         <v>1</v>
       </c>
@@ -46737,11 +45411,7 @@
       </c>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr"/>
-      <c r="L1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1197" t="inlineStr"/>
       <c r="M1197" t="n">
         <v>1</v>
       </c>
@@ -46776,11 +45446,7 @@
       </c>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr"/>
-      <c r="L1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1198" t="inlineStr"/>
       <c r="M1198" t="n">
         <v>1</v>
       </c>
@@ -46815,11 +45481,7 @@
       </c>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr"/>
-      <c r="L1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1199" t="inlineStr"/>
       <c r="M1199" t="n">
         <v>1</v>
       </c>
@@ -46854,11 +45516,7 @@
       </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr"/>
-      <c r="L1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1200" t="inlineStr"/>
       <c r="M1200" t="n">
         <v>1</v>
       </c>
@@ -46893,11 +45551,7 @@
       </c>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr"/>
-      <c r="L1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1201" t="inlineStr"/>
       <c r="M1201" t="n">
         <v>1</v>
       </c>
@@ -46932,11 +45586,7 @@
       </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr"/>
-      <c r="L1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1202" t="inlineStr"/>
       <c r="M1202" t="n">
         <v>1</v>
       </c>
@@ -46971,11 +45621,7 @@
       </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr"/>
-      <c r="L1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1203" t="inlineStr"/>
       <c r="M1203" t="n">
         <v>1</v>
       </c>
@@ -47010,11 +45656,7 @@
       </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr"/>
-      <c r="L1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1204" t="inlineStr"/>
       <c r="M1204" t="n">
         <v>1</v>
       </c>
@@ -47049,11 +45691,7 @@
       </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr"/>
-      <c r="L1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1205" t="inlineStr"/>
       <c r="M1205" t="n">
         <v>1</v>
       </c>
@@ -47088,11 +45726,7 @@
       </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr"/>
-      <c r="L1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1206" t="inlineStr"/>
       <c r="M1206" t="n">
         <v>1</v>
       </c>
@@ -47127,11 +45761,7 @@
       </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr"/>
-      <c r="L1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1207" t="inlineStr"/>
       <c r="M1207" t="n">
         <v>1</v>
       </c>
@@ -47166,11 +45796,7 @@
       </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr"/>
-      <c r="L1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1208" t="inlineStr"/>
       <c r="M1208" t="n">
         <v>1</v>
       </c>
@@ -47205,11 +45831,7 @@
       </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr"/>
-      <c r="L1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1209" t="inlineStr"/>
       <c r="M1209" t="n">
         <v>1</v>
       </c>
@@ -47244,11 +45866,7 @@
       </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr"/>
-      <c r="L1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1210" t="inlineStr"/>
       <c r="M1210" t="n">
         <v>1</v>
       </c>
@@ -47283,11 +45901,7 @@
       </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr"/>
-      <c r="L1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1211" t="inlineStr"/>
       <c r="M1211" t="n">
         <v>1</v>
       </c>
@@ -47322,11 +45936,7 @@
       </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr"/>
-      <c r="L1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1212" t="inlineStr"/>
       <c r="M1212" t="n">
         <v>1</v>
       </c>
@@ -47361,11 +45971,7 @@
       </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr"/>
-      <c r="L1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1213" t="inlineStr"/>
       <c r="M1213" t="n">
         <v>1</v>
       </c>
@@ -47400,11 +46006,7 @@
       </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr"/>
-      <c r="L1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1214" t="inlineStr"/>
       <c r="M1214" t="n">
         <v>1</v>
       </c>
@@ -47439,11 +46041,7 @@
       </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr"/>
-      <c r="L1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1215" t="inlineStr"/>
       <c r="M1215" t="n">
         <v>1</v>
       </c>
@@ -47478,11 +46076,7 @@
       </c>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr"/>
-      <c r="L1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1216" t="inlineStr"/>
       <c r="M1216" t="n">
         <v>1</v>
       </c>
@@ -47517,11 +46111,7 @@
       </c>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr"/>
-      <c r="L1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1217" t="inlineStr"/>
       <c r="M1217" t="n">
         <v>1</v>
       </c>
@@ -47556,11 +46146,7 @@
       </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr"/>
-      <c r="L1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1218" t="inlineStr"/>
       <c r="M1218" t="n">
         <v>1</v>
       </c>
@@ -47595,11 +46181,7 @@
       </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr"/>
-      <c r="L1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1219" t="inlineStr"/>
       <c r="M1219" t="n">
         <v>1</v>
       </c>
@@ -47634,11 +46216,7 @@
       </c>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr"/>
-      <c r="L1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1220" t="inlineStr"/>
       <c r="M1220" t="n">
         <v>1</v>
       </c>
@@ -47673,11 +46251,7 @@
       </c>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr"/>
-      <c r="L1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1221" t="inlineStr"/>
       <c r="M1221" t="n">
         <v>1</v>
       </c>
@@ -47712,11 +46286,7 @@
       </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr"/>
-      <c r="L1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1222" t="inlineStr"/>
       <c r="M1222" t="n">
         <v>1</v>
       </c>
@@ -47751,11 +46321,7 @@
       </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr"/>
-      <c r="L1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1223" t="inlineStr"/>
       <c r="M1223" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest ETH.xlsx
+++ b/BackTest/2019-10-28 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>304.456057058052</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>10.66205705805197</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>209900</v>
@@ -523,7 +523,7 @@
         <v>9.395057058051972</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>209600</v>
@@ -562,7 +562,7 @@
         <v>9.395057058051972</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>209500</v>
@@ -601,7 +601,7 @@
         <v>-5.212342941948028</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>209500</v>
@@ -640,7 +640,7 @@
         <v>-5.212342941948028</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>209400</v>
@@ -679,7 +679,7 @@
         <v>-5.212342941948028</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>209400</v>
@@ -718,7 +718,7 @@
         <v>-58.55574294194803</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>209400</v>
@@ -757,7 +757,7 @@
         <v>-68.97974294194803</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>209200</v>
@@ -796,7 +796,7 @@
         <v>-129.207142941948</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>209100</v>
@@ -835,7 +835,7 @@
         <v>-120.221242941948</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>209000</v>
@@ -874,7 +874,7 @@
         <v>-121.378442941948</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>209200</v>
@@ -913,7 +913,7 @@
         <v>-81.27254294194805</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>209000</v>
@@ -952,7 +952,7 @@
         <v>-49.62574294194805</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>209200</v>
@@ -991,7 +991,7 @@
         <v>-49.62574294194805</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>209400</v>
@@ -1030,7 +1030,7 @@
         <v>-1.128942941948047</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>209400</v>
@@ -1069,7 +1069,7 @@
         <v>-1.128942941948047</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>209900</v>
@@ -1108,7 +1108,7 @@
         <v>23.06335705805195</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>209900</v>
@@ -1147,7 +1147,7 @@
         <v>-286.618942941948</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>210000</v>
@@ -1186,9 +1186,11 @@
         <v>-77.91594294194803</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>209500</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,9 +1225,11 @@
         <v>-89.64264294194803</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>210000</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1260,7 +1264,7 @@
         <v>-77.40974294194802</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>209500</v>
@@ -1299,9 +1303,11 @@
         <v>-85.30634294194803</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>209900</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1336,9 +1342,11 @@
         <v>-64.03354294194803</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>209800</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -4296,7 +4304,7 @@
         <v>2147.685303961931</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4333,7 +4341,7 @@
         <v>2073.649103961931</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4370,7 +4378,7 @@
         <v>1917.506103961931</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4407,7 +4415,7 @@
         <v>1807.515403961931</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4444,7 +4452,7 @@
         <v>2001.111103961931</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4481,7 +4489,7 @@
         <v>2004.531803961931</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4518,7 +4526,7 @@
         <v>1953.103403961931</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4555,7 +4563,7 @@
         <v>1884.497403961931</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4592,7 +4600,7 @@
         <v>1903.905767517694</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4629,7 +4637,7 @@
         <v>1951.814767517694</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4666,7 +4674,7 @@
         <v>2100.099267517694</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4703,7 +4711,7 @@
         <v>2815.380267517694</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4740,7 +4748,7 @@
         <v>2796.608067517695</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4777,7 +4785,7 @@
         <v>2974.695967517694</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4814,7 +4822,7 @@
         <v>2918.774967517695</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4851,7 +4859,7 @@
         <v>2895.814267517695</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4888,7 +4896,7 @@
         <v>2876.366367517694</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4962,7 +4970,7 @@
         <v>3092.257567517694</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4999,7 +5007,7 @@
         <v>2958.614367517695</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5036,7 +5044,7 @@
         <v>2897.022067517695</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5073,7 +5081,7 @@
         <v>2897.022067517695</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5110,7 +5118,7 @@
         <v>3014.394456365105</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5147,7 +5155,7 @@
         <v>2802.472256365105</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5184,7 +5192,7 @@
         <v>2448.975656365105</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5221,7 +5229,7 @@
         <v>2195.932356365105</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5332,7 +5340,7 @@
         <v>1707.139573601785</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5369,7 +5377,7 @@
         <v>1667.985673601785</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5406,7 +5414,7 @@
         <v>1503.009473601785</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5443,7 +5451,7 @@
         <v>1667.998073601785</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5813,7 +5821,7 @@
         <v>686.7125736017852</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5850,7 +5858,7 @@
         <v>486.7429736017851</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6997,9 +7005,11 @@
         <v>-2071.465217618765</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>209300</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7145,9 +7155,11 @@
         <v>-2105.432518763257</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>209600</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7219,9 +7231,11 @@
         <v>-2193.041718763257</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>209300</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7256,9 +7270,11 @@
         <v>-2142.589918763257</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>209100</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7293,9 +7309,11 @@
         <v>-2142.872118763257</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>209400</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7367,9 +7385,11 @@
         <v>-2070.181318763257</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>209300</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7404,9 +7424,11 @@
         <v>-2228.041118763258</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>209600</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7441,9 +7463,11 @@
         <v>-2327.390518763258</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>209400</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7478,9 +7502,11 @@
         <v>-2321.938118763258</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>209200</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7515,9 +7541,11 @@
         <v>-2450.318366587265</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>209300</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7552,7 +7580,7 @@
         <v>-2427.459366587265</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>208500</v>
@@ -7591,9 +7619,11 @@
         <v>-2447.740366587265</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>208900</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7628,7 +7658,7 @@
         <v>-2377.443566587265</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>208700</v>
@@ -7667,9 +7697,11 @@
         <v>-2401.841566587265</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>209000</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7704,9 +7736,11 @@
         <v>-2401.841566587265</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>208900</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7741,7 +7775,7 @@
         <v>-2382.587466587265</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>208900</v>
@@ -7780,9 +7814,11 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>209500</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7817,9 +7853,11 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>209600</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7854,9 +7892,11 @@
         <v>-2187.560866587265</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>209600</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7891,9 +7931,11 @@
         <v>-2302.718866587265</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>209700</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7965,9 +8007,11 @@
         <v>-2265.367166587265</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>209800</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -8113,9 +8157,11 @@
         <v>-2218.991866587265</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>209900</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8150,7 +8196,7 @@
         <v>-2190.490066587265</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>209700</v>
@@ -8189,9 +8235,11 @@
         <v>-2200.240366587265</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>209800</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8226,9 +8274,11 @@
         <v>-2195.379166587265</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>209700</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8263,9 +8313,11 @@
         <v>-2216.550666587265</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>210000</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8300,7 +8352,7 @@
         <v>-2215.883966587265</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>209800</v>
@@ -8339,7 +8391,7 @@
         <v>-2261.088266587265</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>209900</v>
@@ -8378,7 +8430,7 @@
         <v>-2247.352166587265</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>209800</v>
@@ -8417,7 +8469,7 @@
         <v>-2250.140366587265</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>210000</v>
@@ -8456,7 +8508,7 @@
         <v>-2204.909438015836</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>209600</v>
@@ -8495,7 +8547,7 @@
         <v>-2199.159690396789</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>209700</v>
@@ -8534,7 +8586,7 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>210000</v>
@@ -8573,7 +8625,7 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>210500</v>
@@ -8612,7 +8664,7 @@
         <v>-2173.006738015837</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>210500</v>
@@ -8651,7 +8703,7 @@
         <v>-2173.006738015837</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>210700</v>
@@ -8690,11 +8742,9 @@
         <v>-2142.054538015836</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>210700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8766,11 +8816,9 @@
         <v>-2057.956684896744</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>211000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8916,9 +8964,11 @@
         <v>-2483.557483001009</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>210900</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8953,9 +9003,11 @@
         <v>-2483.557483001009</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>210700</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8990,9 +9042,11 @@
         <v>-2464.175983001009</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>210700</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9027,9 +9081,11 @@
         <v>-2478.222519967834</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>211200</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9064,9 +9120,11 @@
         <v>-2482.875919967834</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>210900</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9101,9 +9159,11 @@
         <v>-2512.099989242372</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>210800</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9138,9 +9198,11 @@
         <v>-2483.327889242371</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>210500</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9175,9 +9237,11 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>210600</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9212,9 +9276,11 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>211100</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9249,9 +9315,11 @@
         <v>-2483.998687015938</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>211100</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9286,9 +9354,11 @@
         <v>-2480.665187015938</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>210800</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9323,9 +9393,11 @@
         <v>-2483.295887015938</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>211000</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9360,9 +9432,11 @@
         <v>-2470.802687015938</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>210600</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9397,9 +9471,11 @@
         <v>-2455.050787015938</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>210700</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9434,7 +9510,7 @@
         <v>-2497.090841044374</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>210800</v>
@@ -9473,9 +9549,11 @@
         <v>-2500.308141044374</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>210700</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9510,9 +9588,11 @@
         <v>-2442.328841044374</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>210600</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9547,9 +9627,11 @@
         <v>-2267.848492846377</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>210900</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9584,9 +9666,11 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>211100</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9621,9 +9705,11 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>211000</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9658,9 +9744,11 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>211000</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9695,9 +9783,11 @@
         <v>-2234.038190619944</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>211000</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9732,9 +9822,11 @@
         <v>-2081.496590619944</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>211200</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9769,9 +9861,11 @@
         <v>-2127.571690619944</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>211500</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9806,9 +9900,11 @@
         <v>-2290.378007861323</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>211400</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9843,9 +9939,11 @@
         <v>-2270.110507861323</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>211300</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9880,9 +9978,11 @@
         <v>-2291.854807861323</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>211500</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9917,9 +10017,11 @@
         <v>-2270.358407861323</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>211000</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9954,9 +10056,11 @@
         <v>-2084.782307861323</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>211300</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9991,9 +10095,11 @@
         <v>-2157.988107861323</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>211900</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10028,9 +10134,11 @@
         <v>-2176.666907861323</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>211600</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10065,9 +10173,11 @@
         <v>-2174.266807861323</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>211100</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10102,9 +10212,11 @@
         <v>-2341.212907861323</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>211400</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10139,9 +10251,11 @@
         <v>-2277.923007861323</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>211200</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10176,9 +10290,11 @@
         <v>-2320.675907861323</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>211800</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10213,9 +10329,11 @@
         <v>-2525.299207861323</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>211200</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10250,9 +10368,11 @@
         <v>-2517.374507861323</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>210700</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10287,9 +10407,11 @@
         <v>-2613.364007861323</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>211000</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10324,9 +10446,11 @@
         <v>-2588.212107861324</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>210500</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10361,9 +10485,11 @@
         <v>-2573.951107861324</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>210900</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10398,9 +10524,11 @@
         <v>-2573.951107861324</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>211000</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10435,9 +10563,11 @@
         <v>-2604.192907861323</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>211000</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10472,9 +10602,11 @@
         <v>-2572.419307861323</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>210900</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10509,9 +10641,11 @@
         <v>-2591.280007861324</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>211200</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10546,9 +10680,11 @@
         <v>-2591.280007861324</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>211100</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10583,9 +10719,11 @@
         <v>-2528.981607861323</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>211100</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10620,9 +10758,11 @@
         <v>-2502.717607861323</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>211500</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -11064,9 +11204,11 @@
         <v>-2348.170607861323</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>211400</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11101,9 +11243,11 @@
         <v>-2386.678107861323</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>211400</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11138,9 +11282,11 @@
         <v>-2485.185207861323</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>211100</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -11175,9 +11321,11 @@
         <v>-3160.813907861323</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>211000</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11212,9 +11360,11 @@
         <v>-3337.180807861323</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>210600</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11249,9 +11399,11 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>210400</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -11286,9 +11438,11 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>210100</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -11323,9 +11477,11 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>210100</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -11360,9 +11516,11 @@
         <v>-3531.715207861323</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>210100</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11397,9 +11555,11 @@
         <v>-3499.141907861323</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>210200</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11434,9 +11594,11 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>210300</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11471,9 +11633,11 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>210500</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11508,9 +11672,11 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>210500</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11545,9 +11711,11 @@
         <v>-3460.005069552473</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>210500</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11582,9 +11750,11 @@
         <v>-3465.920169552473</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>211300</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11619,9 +11789,11 @@
         <v>-3395.129669552473</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>211100</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11656,9 +11828,11 @@
         <v>-3362.044569552474</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>211200</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11693,9 +11867,11 @@
         <v>-3220.104369552474</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>211700</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -15726,7 +15902,7 @@
         <v>3231.02155333164</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15763,7 +15939,7 @@
         <v>3131.78825333164</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -19574,16 +19750,18 @@
         <v>3638.131521770927</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L517" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
       <c r="M517" t="inlineStr"/>
     </row>
     <row r="518">
@@ -19609,11 +19787,15 @@
         <v>3663.590721770927</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19646,7 +19828,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19679,7 +19865,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19712,7 +19902,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19745,7 +19939,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19778,7 +19976,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19811,7 +20013,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19844,7 +20050,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19877,7 +20087,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19910,7 +20124,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19943,7 +20161,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19976,7 +20198,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20009,7 +20235,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20042,7 +20272,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20075,7 +20309,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20104,14 +20342,16 @@
         <v>3628.579121538477</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="inlineStr"/>
     </row>
     <row r="534">
@@ -20137,7 +20377,7 @@
         <v>3665.484321538477</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20170,7 +20410,7 @@
         <v>3654.448021538477</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20203,7 +20443,7 @@
         <v>3654.448021538477</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20236,7 +20476,7 @@
         <v>3688.925321538477</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20269,7 +20509,7 @@
         <v>3691.006621538477</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20302,7 +20542,7 @@
         <v>3647.959221538477</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20335,7 +20575,7 @@
         <v>3849.937421538477</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20368,7 +20608,7 @@
         <v>3883.919721538477</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20401,7 +20641,7 @@
         <v>4120.014621538477</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20434,7 +20674,7 @@
         <v>4167.928921538477</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20566,7 +20806,7 @@
         <v>4209.629421538477</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20632,7 +20872,7 @@
         <v>4163.950121538477</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20698,7 +20938,7 @@
         <v>4163.811521538477</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20731,7 +20971,7 @@
         <v>4326.964821538477</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20764,7 +21004,7 @@
         <v>4814.64462356426</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20797,7 +21037,7 @@
         <v>4781.61762356426</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20830,7 +21070,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20863,7 +21103,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20896,7 +21136,7 @@
         <v>4797.14962356426</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20929,7 +21169,7 @@
         <v>4723.09202356426</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20962,7 +21202,7 @@
         <v>4734.992523564259</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20995,7 +21235,7 @@
         <v>4728.43152356426</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21028,7 +21268,7 @@
         <v>4860.555921538477</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21061,7 +21301,7 @@
         <v>4852.645121538478</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21094,7 +21334,7 @@
         <v>4850.645121538478</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21127,7 +21367,7 @@
         <v>4850.630121538477</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21160,7 +21400,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21193,7 +21433,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21226,7 +21466,7 @@
         <v>4957.219521538477</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21259,7 +21499,7 @@
         <v>5001.012421538478</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21292,7 +21532,7 @@
         <v>4921.814221538478</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21325,7 +21565,7 @@
         <v>5449.746221538478</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21358,7 +21598,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21391,7 +21631,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21424,7 +21664,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22051,7 +22291,7 @@
         <v>5470.301421538478</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22084,7 +22324,7 @@
         <v>5483.296021538478</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22117,7 +22357,7 @@
         <v>5483.296021538478</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22150,7 +22390,7 @@
         <v>5483.296021538478</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22183,7 +22423,7 @@
         <v>5483.296021538478</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22216,7 +22456,7 @@
         <v>5483.296021538478</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22249,7 +22489,7 @@
         <v>5507.285221538478</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22282,7 +22522,7 @@
         <v>5507.042321538478</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22315,7 +22555,7 @@
         <v>5509.296921538478</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22348,7 +22588,7 @@
         <v>5519.555621538479</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22381,7 +22621,7 @@
         <v>5512.594021538479</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22909,7 +23149,7 @@
         <v>5483.118921538477</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22942,7 +23182,7 @@
         <v>5486.812221538477</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22975,7 +23215,7 @@
         <v>5491.296021538477</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23008,7 +23248,7 @@
         <v>5490.537921538477</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23041,7 +23281,7 @@
         <v>5490.537921538477</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23074,7 +23314,7 @@
         <v>5490.537921538477</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23107,7 +23347,7 @@
         <v>5443.932821538478</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23140,7 +23380,7 @@
         <v>5440.593621538477</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23173,7 +23413,7 @@
         <v>5442.137321538477</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23206,7 +23446,7 @@
         <v>5421.492121538477</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23239,7 +23479,7 @@
         <v>5421.492121538477</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23272,7 +23512,7 @@
         <v>5413.592521538478</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23305,7 +23545,7 @@
         <v>5408.597521538478</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23338,7 +23578,7 @@
         <v>5408.597521538478</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23371,7 +23611,7 @@
         <v>5431.808821538478</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23404,7 +23644,7 @@
         <v>5431.808821538478</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23437,7 +23677,7 @@
         <v>5432.269421538478</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23470,7 +23710,7 @@
         <v>5432.431721538478</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23503,7 +23743,7 @@
         <v>5430.232421538478</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23536,7 +23776,7 @@
         <v>5439.827421538478</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24031,7 +24271,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24064,7 +24304,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24097,7 +24337,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24130,7 +24370,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24163,7 +24403,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24196,7 +24436,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24229,7 +24469,7 @@
         <v>5482.846521538478</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24262,7 +24502,7 @@
         <v>5439.614321538477</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24295,7 +24535,7 @@
         <v>5439.913421538477</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24328,7 +24568,7 @@
         <v>5433.814221538478</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24361,7 +24601,7 @@
         <v>5437.473021538478</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24394,7 +24634,7 @@
         <v>5387.237221538478</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24427,7 +24667,7 @@
         <v>5344.921521538477</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24460,7 +24700,7 @@
         <v>5348.981621538477</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24493,7 +24733,7 @@
         <v>5326.733321538477</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24526,7 +24766,7 @@
         <v>5477.216921538477</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24955,7 +25195,7 @@
         <v>5308.656121538477</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24988,7 +25228,7 @@
         <v>5336.808904639036</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25021,7 +25261,7 @@
         <v>5312.646104639036</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25054,7 +25294,7 @@
         <v>5312.646104639036</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25087,7 +25327,7 @@
         <v>5245.613804639036</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25120,7 +25360,7 @@
         <v>5245.613804639036</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25153,7 +25393,7 @@
         <v>5245.613804639036</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25186,7 +25426,7 @@
         <v>5245.613804639036</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25219,7 +25459,7 @@
         <v>5217.259804639036</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25252,7 +25492,7 @@
         <v>5278.676604639036</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25285,7 +25525,7 @@
         <v>5499.850804639036</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25318,7 +25558,7 @@
         <v>5513.690004639036</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25351,7 +25591,7 @@
         <v>5514.747404639036</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25384,7 +25624,7 @@
         <v>5513.577104639036</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25417,7 +25657,7 @@
         <v>5513.132104639037</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25450,7 +25690,7 @@
         <v>5493.692504639037</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25483,7 +25723,7 @@
         <v>5420.605904639037</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25747,7 +25987,7 @@
         <v>5428.177804639037</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25780,7 +26020,7 @@
         <v>5428.177804639037</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25813,7 +26053,7 @@
         <v>5428.177804639037</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25846,7 +26086,7 @@
         <v>5392.328004639037</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25879,7 +26119,7 @@
         <v>5392.328004639037</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25912,7 +26152,7 @@
         <v>5355.856004639038</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25945,7 +26185,7 @@
         <v>5355.856004639038</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25978,7 +26218,7 @@
         <v>5355.856004639038</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26011,7 +26251,7 @@
         <v>5361.429404639038</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26044,7 +26284,7 @@
         <v>5396.698804639038</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26077,7 +26317,7 @@
         <v>5396.698804639038</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26110,7 +26350,7 @@
         <v>5396.698804639038</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26143,7 +26383,7 @@
         <v>5396.698804639038</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26176,7 +26416,7 @@
         <v>5396.698804639038</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26209,7 +26449,7 @@
         <v>5400.208104639038</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26242,7 +26482,7 @@
         <v>5392.768104639038</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26275,7 +26515,7 @@
         <v>5392.768104639038</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26836,7 +27076,7 @@
         <v>5733.406484648336</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26869,7 +27109,7 @@
         <v>5695.108772252793</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26902,7 +27142,7 @@
         <v>5695.108772252793</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26935,7 +27175,7 @@
         <v>5816.633672252793</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26968,7 +27208,7 @@
         <v>5923.068672252793</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27001,7 +27241,7 @@
         <v>6076.229672252794</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27034,7 +27274,7 @@
         <v>6076.229672252794</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27067,7 +27307,7 @@
         <v>6143.506472252793</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27100,7 +27340,7 @@
         <v>6141.937872252794</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27133,7 +27373,7 @@
         <v>6196.213414845386</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27166,7 +27406,7 @@
         <v>6486.649114845386</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27199,7 +27439,7 @@
         <v>6475.657514845386</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27232,7 +27472,7 @@
         <v>6469.452114845386</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27265,7 +27505,7 @@
         <v>6469.550314845386</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27298,7 +27538,7 @@
         <v>6451.940314845387</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27331,7 +27571,7 @@
         <v>6453.526614845387</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27364,7 +27604,7 @@
         <v>6365.381214845386</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27397,7 +27637,7 @@
         <v>6284.733114845386</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27430,7 +27670,7 @@
         <v>6284.733114845386</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27463,7 +27703,7 @@
         <v>6264.112914845386</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27496,7 +27736,7 @@
         <v>6264.112914845386</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27529,7 +27769,7 @@
         <v>6259.410314845386</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27562,7 +27802,7 @@
         <v>6259.410314845386</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27595,7 +27835,7 @@
         <v>6270.548214845386</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27628,7 +27868,7 @@
         <v>6290.260514845386</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27661,7 +27901,7 @@
         <v>6283.394914845386</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27694,7 +27934,7 @@
         <v>6221.704614845386</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27727,7 +27967,7 @@
         <v>6282.472214845386</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27760,7 +28000,7 @@
         <v>6203.307814845386</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27793,7 +28033,7 @@
         <v>6078.571314845386</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27826,7 +28066,7 @@
         <v>5852.258214845386</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27859,7 +28099,7 @@
         <v>5832.350114845386</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27892,7 +28132,7 @@
         <v>5833.771014845386</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27925,7 +28165,7 @@
         <v>5656.497714845386</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27958,7 +28198,7 @@
         <v>5807.069714845386</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27991,7 +28231,7 @@
         <v>5802.269114845387</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28024,7 +28264,7 @@
         <v>5794.331114845387</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28684,7 +28924,7 @@
         <v>5240.546435426726</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -31654,7 +31894,7 @@
         <v>5030.033416000663</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31687,7 +31927,7 @@
         <v>5069.324216000663</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31819,7 +32059,7 @@
         <v>4975.409416000663</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31852,7 +32092,7 @@
         <v>4953.341616000664</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31885,7 +32125,7 @@
         <v>4999.815016000663</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31918,7 +32158,7 @@
         <v>5289.092616000664</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31951,7 +32191,7 @@
         <v>5427.782516000664</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31984,7 +32224,7 @@
         <v>5419.983516000664</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32017,7 +32257,7 @@
         <v>5560.162391642288</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32050,7 +32290,7 @@
         <v>5555.797891642288</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32083,7 +32323,7 @@
         <v>5619.331991642288</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32314,7 +32554,7 @@
         <v>5668.338793504486</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32611,7 +32851,7 @@
         <v>5337.702872261758</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32644,7 +32884,7 @@
         <v>5305.858172261758</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32710,7 +32950,7 @@
         <v>5306.354072261758</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32743,7 +32983,7 @@
         <v>5503.910174123956</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32776,7 +33016,7 @@
         <v>5612.091674123955</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32809,7 +33049,7 @@
         <v>6142.304174123955</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32842,7 +33082,7 @@
         <v>6142.304174123955</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32875,7 +33115,7 @@
         <v>6535.421139939951</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32908,7 +33148,7 @@
         <v>6818.495886849545</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32941,7 +33181,7 @@
         <v>6123.790586849545</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32974,7 +33214,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33007,7 +33247,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33040,7 +33280,7 @@
         <v>6027.534086849545</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33073,7 +33313,7 @@
         <v>6044.621586849545</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33238,7 +33478,7 @@
         <v>6134.41499939567</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33271,7 +33511,7 @@
         <v>6257.167499395669</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33304,7 +33544,7 @@
         <v>5971.931699395669</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33337,7 +33577,7 @@
         <v>5765.281448838048</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33370,7 +33610,7 @@
         <v>5945.792674351822</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33403,7 +33643,7 @@
         <v>5336.029874351821</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33436,7 +33676,7 @@
         <v>5408.805237011394</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33469,7 +33709,7 @@
         <v>5537.412644379175</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33502,7 +33742,7 @@
         <v>5553.142728164915</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33535,7 +33775,7 @@
         <v>5518.262828164915</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33568,7 +33808,7 @@
         <v>5440.402700803352</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33601,7 +33841,7 @@
         <v>5521.626900803351</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33634,7 +33874,7 @@
         <v>5564.047500803352</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33667,7 +33907,7 @@
         <v>5564.047500803352</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33700,7 +33940,7 @@
         <v>5402.642000803352</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33733,7 +33973,7 @@
         <v>5331.504900803352</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33766,7 +34006,7 @@
         <v>5200.763800803352</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33799,7 +34039,7 @@
         <v>5213.943030677125</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33832,7 +34072,7 @@
         <v>5230.765030677125</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33865,7 +34105,7 @@
         <v>4926.918130677124</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33898,7 +34138,7 @@
         <v>4694.883430677124</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33931,7 +34171,7 @@
         <v>4702.323401568251</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34525,7 +34765,7 @@
         <v>4648.511201009535</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34558,7 +34798,7 @@
         <v>4648.511201009535</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -36043,7 +36283,7 @@
         <v>5875.001322224477</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36076,7 +36316,7 @@
         <v>5734.878522224477</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36109,7 +36349,7 @@
         <v>5693.175122224477</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36142,7 +36382,7 @@
         <v>5701.183522224476</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36175,7 +36415,7 @@
         <v>5701.183522224476</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36208,7 +36448,7 @@
         <v>5681.540322224476</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36241,7 +36481,7 @@
         <v>5558.032122224476</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36307,7 +36547,7 @@
         <v>5503.604822224475</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36340,7 +36580,7 @@
         <v>5503.604822224475</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36373,7 +36613,7 @@
         <v>5540.322222224475</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36406,7 +36646,7 @@
         <v>5529.773522224475</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36439,7 +36679,7 @@
         <v>5439.129122224474</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36538,7 +36778,7 @@
         <v>5645.706822224475</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36571,7 +36811,7 @@
         <v>5645.104322224475</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36604,7 +36844,7 @@
         <v>5645.104322224475</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36637,7 +36877,7 @@
         <v>5645.104322224475</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36670,7 +36910,7 @@
         <v>5703.681222224475</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36703,7 +36943,7 @@
         <v>5675.683922224475</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36736,7 +36976,7 @@
         <v>5675.683922224475</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36769,7 +37009,7 @@
         <v>5675.683922224475</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36802,7 +37042,7 @@
         <v>5675.683922224475</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36835,7 +37075,7 @@
         <v>5650.477122224475</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36868,7 +37108,7 @@
         <v>5686.332522224476</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36901,7 +37141,7 @@
         <v>5694.672022224476</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36934,7 +37174,7 @@
         <v>5688.534722224475</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36967,7 +37207,7 @@
         <v>5682.047322224475</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37000,7 +37240,7 @@
         <v>5682.047322224475</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37099,7 +37339,7 @@
         <v>4383.194722224475</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37330,7 +37570,7 @@
         <v>4074.239022224474</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37363,7 +37603,7 @@
         <v>4102.159222224474</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37396,7 +37636,7 @@
         <v>3897.609522224474</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37429,7 +37669,7 @@
         <v>3930.038722224474</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37462,7 +37702,7 @@
         <v>4029.251722224475</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -45162,6 +45402,6 @@
       <c r="M1292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ETH.xlsx
+++ b/BackTest/2019-10-28 BackTest ETH.xlsx
@@ -3223,7 +3223,7 @@
         <v>1494.586612033067</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1419.042612033067</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1308.76691791542</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1176.69221791542</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1275.27291791542</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1379.90771791542</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1415.95471791542</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1415.95471791542</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1464.60061791542</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1565.06071791542</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1807.72581791542</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1840.84851791542</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>2054.182117915419</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2203.769817915419</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2477.55811791542</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2147.685303961931</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2073.649103961931</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1917.506103961931</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1807.515403961931</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2001.111103961931</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2004.531803961931</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1953.103403961931</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1884.497403961931</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1903.905767517694</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1951.814767517694</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2100.099267517694</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1632.256254707123</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1798.631273601785</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1707.139573601785</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1667.985673601785</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6820,11 +6820,17 @@
         <v>-2377.443566587265</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>208700</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +6863,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +6900,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6933,17 @@
         <v>-2382.587466587265</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>208900</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6972,17 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>209500</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7011,17 @@
         <v>-2367.908866587265</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>209600</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7050,17 @@
         <v>-2187.560866587265</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>209600</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7089,17 @@
         <v>-2302.718866587265</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>209700</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7128,17 @@
         <v>-2254.185966587265</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>209500</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7171,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7208,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7245,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7282,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7315,17 @@
         <v>-2218.991866587265</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>209900</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7354,17 @@
         <v>-2190.490066587265</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>209700</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7393,17 @@
         <v>-2200.240366587265</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>209800</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7432,17 @@
         <v>-2195.379166587265</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>209700</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7471,17 @@
         <v>-2216.550666587265</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>210000</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7510,17 @@
         <v>-2215.883966587265</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>209800</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7549,17 @@
         <v>-2261.088266587265</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>209900</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7588,17 @@
         <v>-2247.352166587265</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>209800</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7627,17 @@
         <v>-2250.140366587265</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>210000</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7666,17 @@
         <v>-2204.909438015836</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>209600</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7705,17 @@
         <v>-2199.159690396789</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>209700</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7744,17 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>210000</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7783,17 @@
         <v>-2180.875338015836</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>210500</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7822,17 @@
         <v>-2173.006738015837</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>210500</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7861,17 @@
         <v>-2173.006738015837</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>210700</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7900,17 @@
         <v>-2142.054538015836</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>210700</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7939,17 @@
         <v>-2142.054538015836</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>211000</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7978,17 @@
         <v>-2057.956684896744</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>211000</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8017,17 @@
         <v>-2082.848784896744</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>211200</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8056,17 @@
         <v>-2082.848784896744</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>211000</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8095,17 @@
         <v>-2433.453383001009</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>211000</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8134,17 @@
         <v>-2483.557483001009</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>210900</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8173,17 @@
         <v>-2483.557483001009</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>210700</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8212,17 @@
         <v>-2464.175983001009</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>210700</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8251,17 @@
         <v>-2478.222519967834</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>211200</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8290,17 @@
         <v>-2482.875919967834</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>210900</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8329,17 @@
         <v>-2512.099989242372</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>210800</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8368,17 @@
         <v>-2483.327889242371</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>210500</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8407,17 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>210600</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8446,17 @@
         <v>-2443.646589242371</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>211100</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8485,17 @@
         <v>-2483.998687015938</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>211100</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8524,17 @@
         <v>-2480.665187015938</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>210800</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8563,17 @@
         <v>-2483.295887015938</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>211000</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8602,17 @@
         <v>-2470.802687015938</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>210600</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8641,17 @@
         <v>-2455.050787015938</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>210700</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8680,17 @@
         <v>-2497.090841044374</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>210800</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8719,17 @@
         <v>-2500.308141044374</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>210700</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8758,17 @@
         <v>-2442.328841044374</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>210600</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8797,17 @@
         <v>-2267.848492846377</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>210900</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8836,17 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>211100</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8875,17 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>211000</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8914,17 @@
         <v>-2308.631590619944</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>211000</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8953,17 @@
         <v>-2234.038190619944</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>211000</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8992,17 @@
         <v>-2081.496590619944</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>211200</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +9031,17 @@
         <v>-2127.571690619944</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>211500</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9070,17 @@
         <v>-2290.378007861323</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>211400</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9109,17 @@
         <v>-2270.110507861323</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>211300</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9148,17 @@
         <v>-2291.854807861323</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>211500</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9187,17 @@
         <v>-2270.358407861323</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>211000</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9226,17 @@
         <v>-2084.782307861323</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>211300</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9265,17 @@
         <v>-2157.988107861323</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>211900</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9308,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9341,17 @@
         <v>-2174.266807861323</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>211100</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9380,17 @@
         <v>-2341.212907861323</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>211400</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9419,17 @@
         <v>-2277.923007861323</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>211200</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9462,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9495,17 @@
         <v>-2525.299207861323</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>211200</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9538,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9571,17 @@
         <v>-2613.364007861323</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>211000</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9610,17 @@
         <v>-2588.212107861324</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>210500</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9649,17 @@
         <v>-2573.951107861324</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>210900</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9692,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9729,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9766,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9803,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9840,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9877,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9914,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9951,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9988,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10025,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10062,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10099,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10136,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10173,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10210,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10247,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10284,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10321,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10358,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10395,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10432,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10469,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10506,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,15 +10539,13 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>210400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10060,11 +10576,9 @@
         <v>-3550.936007861323</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>210100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10294,11 +10808,9 @@
         <v>-3482.336007861323</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>210500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10333,11 +10845,9 @@
         <v>-3460.005069552473</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>210500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10372,11 +10882,9 @@
         <v>-3465.920169552473</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>211300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10411,11 +10919,9 @@
         <v>-3395.129669552473</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>211100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10450,11 +10956,9 @@
         <v>-3362.044569552474</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>211200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10711,16 +11215,18 @@
         <v>-2296.229523910136</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
       <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -10746,11 +11252,15 @@
         <v>-2407.422723910136</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +11289,15 @@
         <v>-2252.068823910136</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10812,11 +11326,15 @@
         <v>-2046.836823910136</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +11363,15 @@
         <v>-2201.325823910136</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10878,11 +11400,15 @@
         <v>-2210.72458635145</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10911,11 +11437,15 @@
         <v>-2166.033248792765</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +11474,15 @@
         <v>-2166.033248792765</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +11511,15 @@
         <v>-1650.675148792765</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +11548,15 @@
         <v>-1275.094546920106</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11047,7 +11589,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11626,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11113,7 +11663,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11146,7 +11700,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +11737,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11212,7 +11774,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11245,7 +11811,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11848,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11311,7 +11885,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +11922,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11377,7 +11959,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11410,7 +11996,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11443,7 +12033,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11476,7 +12070,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11509,7 +12107,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +12144,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11575,7 +12181,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11608,7 +12218,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11641,7 +12255,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11674,7 +12292,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11707,7 +12329,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11740,7 +12366,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11773,7 +12403,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11806,7 +12440,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11839,7 +12477,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +12514,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11905,7 +12551,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +12588,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11971,7 +12625,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12004,7 +12662,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12037,7 +12699,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12070,7 +12736,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12103,7 +12773,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12136,7 +12810,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12165,11 +12843,15 @@
         <v>1701.714100239485</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12198,11 +12880,15 @@
         <v>1701.714100239485</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12231,11 +12917,15 @@
         <v>1761.921100239485</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12268,7 +12958,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12297,11 +12991,15 @@
         <v>1571.665200239485</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12330,11 +13028,15 @@
         <v>1713.179900239485</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12363,11 +13065,15 @@
         <v>1707.882700239485</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +13102,15 @@
         <v>1746.878900239485</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12429,11 +13139,15 @@
         <v>1743.569000239485</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12462,11 +13176,15 @@
         <v>1780.608900239485</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +13217,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12532,7 +13254,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12565,7 +13291,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12598,7 +13328,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12631,7 +13365,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12664,7 +13402,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +13439,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12730,7 +13476,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12763,7 +13513,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12796,7 +13550,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12829,7 +13587,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +13624,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12895,7 +13661,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12928,7 +13698,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12961,7 +13735,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12994,7 +13772,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13027,7 +13809,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13060,7 +13846,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +13883,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13126,7 +13920,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13159,7 +13957,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13192,7 +13994,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13225,7 +14031,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13258,7 +14068,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13291,7 +14105,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13324,7 +14142,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13357,7 +14179,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13390,7 +14216,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13423,7 +14253,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13456,7 +14290,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13489,7 +14327,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13522,7 +14364,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13555,7 +14401,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13588,7 +14438,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13621,7 +14475,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +14512,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13687,7 +14549,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13720,7 +14586,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13753,7 +14623,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13786,7 +14660,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13819,7 +14697,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13852,7 +14734,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13885,7 +14771,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13918,7 +14808,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13951,7 +14845,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13984,7 +14882,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +14919,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14050,7 +14956,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14083,7 +14993,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14116,7 +15030,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14149,7 +15067,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14182,7 +15104,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14215,7 +15141,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +15178,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14281,7 +15215,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14310,11 +15248,15 @@
         <v>3200.757353331639</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14343,11 +15285,15 @@
         <v>3069.084153331639</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14376,11 +15322,15 @@
         <v>3224.217453331639</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14409,11 +15359,15 @@
         <v>3265.197353331639</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14442,11 +15396,15 @@
         <v>3537.270853331639</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14475,11 +15433,15 @@
         <v>3365.680253331639</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14508,11 +15470,15 @@
         <v>3324.403353331639</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14545,7 +15511,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14578,7 +15548,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14611,7 +15585,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14644,7 +15622,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14677,7 +15659,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14710,7 +15696,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14743,7 +15733,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14776,7 +15770,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14809,7 +15807,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +15840,15 @@
         <v>3341.661495000315</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +15877,15 @@
         <v>3719.964195000316</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14908,7 +15918,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14937,11 +15951,15 @@
         <v>3556.486795000315</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14970,11 +15988,15 @@
         <v>3526.352695000315</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15007,7 +16029,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +16062,15 @@
         <v>3582.731595000315</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15069,11 +16099,15 @@
         <v>3614.985495000315</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15106,7 +16140,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15135,11 +16173,15 @@
         <v>3488.381095000315</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15172,7 +16214,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15205,7 +16251,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15238,7 +16288,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15271,7 +16325,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15304,7 +16362,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15337,7 +16399,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15370,7 +16436,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +16473,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15436,7 +16510,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15469,7 +16547,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15502,7 +16584,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15535,7 +16621,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15568,7 +16658,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15601,7 +16695,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15634,7 +16732,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15667,7 +16769,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15700,7 +16806,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15733,7 +16843,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15766,7 +16880,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15799,7 +16917,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15832,7 +16954,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15865,7 +16991,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15898,7 +17028,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15931,7 +17065,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15964,7 +17102,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15997,7 +17139,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16030,7 +17176,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16063,7 +17213,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16096,7 +17250,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16129,7 +17287,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16162,7 +17324,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16195,7 +17361,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16228,7 +17398,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16261,7 +17435,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16294,7 +17472,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16327,7 +17509,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16360,7 +17546,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16393,7 +17583,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16426,7 +17620,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16459,7 +17657,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16492,7 +17694,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16525,7 +17731,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +17768,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16591,7 +17805,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16624,7 +17842,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16657,7 +17879,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16690,7 +17916,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16723,7 +17953,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16756,7 +17990,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16789,7 +18027,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16822,7 +18064,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16855,7 +18101,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16888,7 +18138,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16921,7 +18175,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16954,7 +18212,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16987,7 +18249,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17020,7 +18286,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17053,7 +18323,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17086,7 +18360,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17119,7 +18397,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17152,7 +18434,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17185,7 +18471,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17218,7 +18508,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17251,7 +18545,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17284,7 +18582,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17317,7 +18619,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17350,7 +18656,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17383,7 +18693,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17416,7 +18730,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17449,7 +18767,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17482,7 +18804,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17515,7 +18841,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17548,7 +18878,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17581,7 +18915,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17614,7 +18952,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17647,7 +18989,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17680,7 +19026,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +19063,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17746,7 +19100,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17779,7 +19137,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17812,7 +19174,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17845,7 +19211,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17878,7 +19248,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17911,7 +19285,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17944,7 +19322,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17977,7 +19359,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18010,7 +19396,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18043,7 +19433,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18076,7 +19470,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18109,7 +19507,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18142,7 +19544,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18175,7 +19581,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18208,7 +19618,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18241,7 +19655,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18274,7 +19692,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18307,7 +19729,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18340,7 +19766,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18373,7 +19803,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18406,7 +19840,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18435,14 +19873,16 @@
         <v>4095.391121538477</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
@@ -18501,7 +19941,7 @@
         <v>4355.520521538477</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18534,7 +19974,7 @@
         <v>4209.629421538477</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18567,7 +20007,7 @@
         <v>4216.531121538477</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18600,7 +20040,7 @@
         <v>4163.950121538477</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18633,7 +20073,7 @@
         <v>4211.676521538477</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18666,7 +20106,7 @@
         <v>4163.811521538477</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18699,7 +20139,7 @@
         <v>4326.964821538477</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18732,7 +20172,7 @@
         <v>4814.64462356426</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18765,7 +20205,7 @@
         <v>4781.61762356426</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18798,7 +20238,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18831,7 +20271,7 @@
         <v>4798.66392356426</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18864,7 +20304,7 @@
         <v>4797.14962356426</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18897,7 +20337,7 @@
         <v>4723.09202356426</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18930,7 +20370,7 @@
         <v>4734.992523564259</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18963,7 +20403,7 @@
         <v>4728.43152356426</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18996,7 +20436,7 @@
         <v>4860.555921538477</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19029,7 +20469,7 @@
         <v>4852.645121538478</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19062,7 +20502,7 @@
         <v>4850.645121538478</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19095,7 +20535,7 @@
         <v>4850.630121538477</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19128,7 +20568,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19161,7 +20601,7 @@
         <v>4906.340121538477</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19194,7 +20634,7 @@
         <v>4957.219521538477</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19227,7 +20667,7 @@
         <v>5001.012421538478</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19260,7 +20700,7 @@
         <v>4921.814221538478</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19293,7 +20733,7 @@
         <v>5449.746221538478</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19326,7 +20766,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19359,7 +20799,7 @@
         <v>5448.314521538477</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19392,7 +20832,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19425,7 +20865,7 @@
         <v>5532.114821538477</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19458,7 +20898,7 @@
         <v>5531.814821538477</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19491,7 +20931,7 @@
         <v>5540.875221538477</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19524,7 +20964,7 @@
         <v>5639.878121538478</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19557,7 +20997,7 @@
         <v>5620.857421538478</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19590,7 +21030,7 @@
         <v>5639.593521538478</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19623,7 +21063,7 @@
         <v>5639.593521538478</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19656,7 +21096,7 @@
         <v>5635.991421538478</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19689,7 +21129,7 @@
         <v>5635.991421538478</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19722,7 +21162,7 @@
         <v>5620.656321538478</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19755,7 +21195,7 @@
         <v>5518.107521538478</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19788,7 +21228,7 @@
         <v>5518.112121538478</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19821,7 +21261,7 @@
         <v>5518.112121538478</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19854,7 +21294,7 @@
         <v>5503.188121538478</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19887,7 +21327,7 @@
         <v>5491.664721538478</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19920,7 +21360,7 @@
         <v>5491.664721538478</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19953,7 +21393,7 @@
         <v>5470.301421538478</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -25200,7 +26640,7 @@
         <v>6469.452114845386</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -29556,7 +30996,7 @@
         <v>4980.334116000663</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29589,7 +31029,7 @@
         <v>4991.024316000663</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29622,7 +31062,7 @@
         <v>5030.033416000663</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29655,7 +31095,7 @@
         <v>5069.324216000663</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29688,7 +31128,7 @@
         <v>5201.207916000663</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29721,7 +31161,7 @@
         <v>5082.973216000663</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29754,7 +31194,7 @@
         <v>5082.973216000663</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29787,7 +31227,7 @@
         <v>4975.409416000663</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29820,7 +31260,7 @@
         <v>4953.341616000664</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29853,7 +31293,7 @@
         <v>4999.815016000663</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29886,7 +31326,7 @@
         <v>5289.092616000664</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29919,7 +31359,7 @@
         <v>5427.782516000664</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29952,7 +31392,7 @@
         <v>5419.983516000664</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29985,7 +31425,7 @@
         <v>5560.162391642288</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30018,7 +31458,7 @@
         <v>5555.797891642288</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30051,7 +31491,7 @@
         <v>5619.331991642288</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30084,7 +31524,7 @@
         <v>5699.925591642288</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30117,7 +31557,7 @@
         <v>5699.925591642288</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30150,7 +31590,7 @@
         <v>5599.915691642288</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30183,7 +31623,7 @@
         <v>5815.848291642288</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30216,7 +31656,7 @@
         <v>5755.768691642288</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30909,7 +32349,7 @@
         <v>6123.790586849545</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30942,7 +32382,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30975,7 +32415,7 @@
         <v>6051.228086849545</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31107,7 +32547,7 @@
         <v>6080.539886849545</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31140,7 +32580,7 @@
         <v>6190.814377993456</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31173,7 +32613,7 @@
         <v>6152.83919939567</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31206,7 +32646,7 @@
         <v>6134.41499939567</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31239,7 +32679,7 @@
         <v>6257.167499395669</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31272,7 +32712,7 @@
         <v>5971.931699395669</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31305,7 +32745,7 @@
         <v>5765.281448838048</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -37905,7 +39345,7 @@
         <v>3190.753629832757</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -37938,7 +39378,7 @@
         <v>3182.387029832757</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -37971,7 +39411,7 @@
         <v>3182.387029832757</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38004,7 +39444,7 @@
         <v>3197.030729832757</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -38037,7 +39477,7 @@
         <v>3191.263429832757</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -38235,7 +39675,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -38268,7 +39708,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38301,7 +39741,7 @@
         <v>3165.658029832757</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
